--- a/Car_TestCases/Car_AdminTCs.xlsx
+++ b/Car_TestCases/Car_AdminTCs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>Test case ID</t>
   </si>
@@ -133,18 +133,6 @@
   </si>
   <si>
     <t>The ui of add user page shall contain registration form contain: user name ,email ,phone ,address, password ,confirm password fields and register button.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that after adding user the added user shall be exists in all users page. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Open Google chrome.
-2- Navigate to car connect website "http://localhost:8080/Car implementation/"
-3- Click on "Add User" button in admin home page.
-4- Fill all registration fields using registration test data.
-5- Click on Register button.
-6- Click on "All users" button from navigation bar.
- </t>
   </si>
   <si>
     <t>Validate the function of "All users"
@@ -200,65 +188,142 @@
     <t>The admin shall delete the user successfully.</t>
   </si>
   <si>
+    <t>Car_SRS_34</t>
+  </si>
+  <si>
+    <t>1-Open Google chrome.
+2- Navigate to car connect website "http://localhost:8080/Car implementation/"
+3- Check ui of admin home page.</t>
+  </si>
+  <si>
+    <t>The ui of admin home page shall contain
+in the header there are car connect website logo, my profile, and logout button. In the navigation bar there are
+home, about us, all reservation, all cars, all users, add car, and add user buttons. In home page there are color ,model, and price drop down list, and also list of cars and under each car see more button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> validate the admin can change car status
+ from reserved to sold. </t>
+  </si>
+  <si>
+    <t>Car_AdminTC_09</t>
+  </si>
+  <si>
+    <t>Car_AdminTC_10</t>
+  </si>
+  <si>
+    <t>Car_AdminTC_11</t>
+  </si>
+  <si>
+    <t>Car_SRS_38</t>
+  </si>
+  <si>
+    <t>Car_SRS_39</t>
+  </si>
+  <si>
+    <t>1-Open Google chrome.
+2- Navigate to car connect website "http://localhost:8080/Car implementation/"
+3- Click on "All cars" button from navigation bar.
+4- Change car status from reserved to free from status drop down list under each car image .</t>
+  </si>
+  <si>
+    <t>1-Open Google chrome.
+2- Navigate to car connect website "http://localhost:8080/Car implementation/"
+3- Click on "All cars" button from navigation bar.
+4- Change car status from reserved to sold from status drop down list under each car image .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that after adding user the added user shall be existed in all users page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Open Google chrome.
+2- Navigate to car connect website "http://localhost:8080/Car implementation/"
+3- Click on "Add User" button from navigation bar.
+4- Fill all registration fields using registration test data.
+5- Click on Register button.
+6- Click on "All users" button from navigation bar.
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> validate the admin can change car status
+ from reserved to free. </t>
+  </si>
+  <si>
+    <t>User name: Admin123
+Password: lolo.lolo.124</t>
+  </si>
+  <si>
+    <t>The status drop down list shall contain "reserved,sold,free"status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Open Google chrome.
+2- Navigate to car connect website "http://localhost:8080/Car implementation/"
+3- Click on "Add User" button from navigation bar.
+4- Leave all registration fields empty.
+5- Click on Register button.
+ </t>
+  </si>
+  <si>
+    <t>1- login data:
+User name: Admin123
+Password: lolo.lolo.123
+2- Registration data:
+address: wadi hoof
+email:koko@gmail.com
+phone:1234567899
+password:Koko@1234
+confirm password:Koko@1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Open Google chrome.
+2- Navigate to car connect website "http://localhost:8080/Car implementation/"
+3- Click on "Add User" button from navigation bar.
+4- Fill the registration fields using registration test data.
+5- Click on Register button.
+ </t>
+  </si>
+  <si>
+    <t>Car_AdminTC_12</t>
+  </si>
+  <si>
+    <t>Car_AdminTC_13</t>
+  </si>
+  <si>
+    <t>Validate that the admin can not add user if one registration field is empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The admin can't add user and error message displayed as "please fill out this field" on user name field. </t>
+  </si>
+  <si>
+    <t>The ui of "All users "page shall contain
+list of registered users information(name,phone,email,and address) and under each user there is delete user link.</t>
+  </si>
+  <si>
     <t>1-Open Google chrome.
 2- Navigate to car connect website "http://localhost:8080/Car implementation/"
 3- Click on "All Users" button from navigation bar.
 4- Choose any user from the displayed  list of users.
-5-Click on "Delelte user"link under the user information.</t>
-  </si>
-  <si>
-    <t>Car_SRS_34</t>
-  </si>
-  <si>
-    <t>1-Open Google chrome.
-2- Navigate to car connect website "http://localhost:8080/Car implementation/"
-3- Check ui of admin home page.</t>
-  </si>
-  <si>
-    <t>The ui of admin home page shall contain
-in the header there are car connect website logo, my profile, and logout button. In the navigation bar there are
-home, about us, all reservation, all cars, all users, add car, and add user buttons. In home page there are color ,model, and price drop down list, and also list of cars and under each car see more button.</t>
-  </si>
-  <si>
-    <t>The ui of "All users "page shall contain
-list of registered users information(name,phone,email,and address) and uner each user there is delete user link.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> validate the admin can change car status
- from reserved to sold. </t>
-  </si>
-  <si>
-    <t>The admin shall change car staus from reserved to sold successfully.</t>
-  </si>
-  <si>
-    <t>Car_AdminTC_09</t>
-  </si>
-  <si>
-    <t>Car_AdminTC_10</t>
-  </si>
-  <si>
-    <t>Car_AdminTC_11</t>
-  </si>
-  <si>
-    <t>Car_SRS_38</t>
-  </si>
-  <si>
-    <t>Car_SRS_39</t>
-  </si>
-  <si>
-    <t>The admin shall change car staus from reserved to free successfully.</t>
+5- Click on "Delete user "link under the user information that you choosed.</t>
+  </si>
+  <si>
+    <t>The admin shall change car status from reserved to sold successfully.</t>
+  </si>
+  <si>
+    <t>The admin shall change car status from reserved to free successfully.</t>
+  </si>
+  <si>
+    <t>Check after clicking on status drop down list if it contains "reserved,sold,free"status.</t>
   </si>
   <si>
     <t>1-Open Google chrome.
 2- Navigate to car connect website "http://localhost:8080/Car implementation/"
 3- Click on "All cars" button from navigation bar.
-4- Change car status from reserved to free from status drop down list under each car image .</t>
-  </si>
-  <si>
-    <t>1-Open Google chrome.
-2- Navigate to car connect website "http://localhost:8080/Car implementation/"
-3- Click on "All cars" button from navigation bar.
-4- Change car status from reserved to sold from status drop down list under each car image .</t>
+4- Click on status drop down list under each car.</t>
+  </si>
+  <si>
+    <t>Validate that the admin can not add user if all registration fields are empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The admin can't add user and error message displayed as "please fill out this field". </t>
   </si>
 </sst>
 </file>
@@ -706,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -825,10 +890,10 @@
         <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>23</v>
@@ -857,7 +922,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>31</v>
@@ -886,7 +951,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>37</v>
@@ -906,16 +971,16 @@
         <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>33</v>
@@ -927,7 +992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -935,7 +1000,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>29</v>
@@ -944,10 +1009,10 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>23</v>
@@ -956,30 +1021,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>22</v>
+      <c r="F8" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>23</v>
@@ -988,18 +1050,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>29</v>
@@ -1008,10 +1067,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>23</v>
@@ -1020,18 +1079,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>29</v>
@@ -1040,10 +1099,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>23</v>
@@ -1052,18 +1111,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>56</v>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>29</v>
@@ -1072,10 +1131,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>23</v>
@@ -1084,9 +1143,97 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Car_TestCases/Car_AdminTCs.xlsx
+++ b/Car_TestCases/Car_AdminTCs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t>Test case ID</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t xml:space="preserve">The admin can't add user and error message displayed as "please fill out this field". </t>
+  </si>
+  <si>
+    <t>Mina</t>
   </si>
 </sst>
 </file>
@@ -773,22 +776,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="16.42578125" style="6"/>
-    <col min="4" max="4" width="34.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="6" customWidth="1"/>
+    <col min="1" max="3" width="16.44140625" style="6"/>
+    <col min="4" max="4" width="34.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="49" style="6" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="16.42578125" style="6"/>
+    <col min="8" max="8" width="36.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="16.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="5" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="5" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +847,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -872,8 +875,11 @@
       <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -901,8 +907,11 @@
       <c r="K3" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -933,8 +942,11 @@
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -962,8 +974,11 @@
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -991,8 +1006,11 @@
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1020,8 +1038,11 @@
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1049,8 +1070,11 @@
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1078,8 +1102,11 @@
       <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
@@ -1110,8 +1137,11 @@
       <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>54</v>
       </c>
@@ -1142,8 +1172,11 @@
       <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
@@ -1174,8 +1207,11 @@
       <c r="K12" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>68</v>
       </c>
@@ -1206,8 +1242,11 @@
       <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>69</v>
       </c>
@@ -1234,6 +1273,9 @@
       </c>
       <c r="K14" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Car_TestCases/Car_AdminTCs.xlsx
+++ b/Car_TestCases/Car_AdminTCs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
   <si>
     <t>Test case ID</t>
   </si>
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t xml:space="preserve">The admin can't add user and error message displayed as "please fill out this field". </t>
-  </si>
-  <si>
-    <t>Mina</t>
   </si>
 </sst>
 </file>
@@ -776,22 +773,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.44140625" style="6"/>
-    <col min="4" max="4" width="34.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="6" customWidth="1"/>
+    <col min="1" max="3" width="16.42578125" style="6"/>
+    <col min="4" max="4" width="34.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="49" style="6" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="16.44140625" style="6"/>
+    <col min="8" max="8" width="36.140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="16.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="5" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="5" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +844,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -875,11 +872,8 @@
       <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:28" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -907,11 +901,8 @@
       <c r="K3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -942,11 +933,8 @@
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -974,11 +962,8 @@
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1006,11 +991,8 @@
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1038,11 +1020,8 @@
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1070,14 +1049,14 @@
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1102,11 +1081,8 @@
       <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
@@ -1137,11 +1113,8 @@
       <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:28" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>54</v>
       </c>
@@ -1172,11 +1145,8 @@
       <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:28" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
@@ -1207,11 +1177,8 @@
       <c r="K12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>68</v>
       </c>
@@ -1242,11 +1209,8 @@
       <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:28" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>69</v>
       </c>
@@ -1273,9 +1237,6 @@
       </c>
       <c r="K14" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Car_TestCases/Car_AdminTCs.xlsx
+++ b/Car_TestCases/Car_AdminTCs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
   <si>
     <t>Test case ID</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t xml:space="preserve">The admin can't add user and error message displayed as "please fill out this field". </t>
+  </si>
+  <si>
+    <t>Mina</t>
   </si>
 </sst>
 </file>
@@ -773,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -872,6 +875,9 @@
       <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M2" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:28" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -901,6 +907,9 @@
       <c r="K3" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M3" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -933,6 +942,9 @@
       <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M4" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -962,6 +974,9 @@
       <c r="K5" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M5" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -991,6 +1006,9 @@
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M6" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1020,6 +1038,9 @@
       <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M7" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1049,6 +1070,9 @@
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M8" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1081,6 +1105,9 @@
       <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M9" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1113,6 +1140,9 @@
       <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M10" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1145,6 +1175,9 @@
       <c r="K11" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M11" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1177,6 +1210,9 @@
       <c r="K12" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1209,6 +1245,9 @@
       <c r="K13" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="M13" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:28" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -1237,6 +1276,9 @@
       </c>
       <c r="K14" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
